--- a/data/trans_bre/P9_2_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P9_2_R-Edad-trans_bre.xlsx
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que dejo de hacer algunas tareas por problemas físicos</t>
+          <t>Población que dejó de hacer algunas tareas por problemas físicos</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -668,37 +668,37 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 4,39</t>
+          <t>-0,29; 4,22</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 4,22</t>
+          <t>-0,9; 4,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 3,44</t>
+          <t>-0,84; 3,51</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,68; 9,13</t>
+          <t>1,65; 9,07</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-7,22; 351,71</t>
+          <t>-13,92; 290,24</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-19,54; 247,16</t>
+          <t>-29,3; 240,12</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-41,48; 375,18</t>
+          <t>-41,9; 415,5</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,18; 6,78</t>
+          <t>2,19; 7,15</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 4,07</t>
+          <t>-0,44; 4,22</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 4,14</t>
+          <t>-0,64; 4,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,09; 1,69</t>
+          <t>-6,18; 1,2</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>54,24; 368,49</t>
+          <t>58,13; 409,68</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-15,38; 178,77</t>
+          <t>-12,78; 192,29</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-16,13; 179,86</t>
+          <t>-14,15; 195,02</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-63,31; 40,12</t>
+          <t>-60,96; 25,59</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,02; 6,46</t>
+          <t>1,24; 6,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,09; 8,15</t>
+          <t>2,23; 8,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,92; 6,26</t>
+          <t>0,92; 6,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,36; 6,45</t>
+          <t>0,41; 6,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>15,23; 182,07</t>
+          <t>19,05; 196,44</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>22,92; 169,52</t>
+          <t>28,9; 169,33</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>12,55; 189,51</t>
+          <t>13,39; 199,88</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,76; 122,69</t>
+          <t>4,59; 138,58</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,33; 9,49</t>
+          <t>2,47; 9,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,87; 11,41</t>
+          <t>3,56; 11,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,17; 7,01</t>
+          <t>0,02; 6,85</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 7,15</t>
+          <t>-0,82; 7,14</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>26,41; 175,22</t>
+          <t>28,77; 176,68</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>35,92; 170,89</t>
+          <t>34,61; 168,35</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,36; 92,17</t>
+          <t>0,14; 93,18</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-8,7; 74,16</t>
+          <t>-5,97; 72,89</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 6,72</t>
+          <t>-2,79; 7,07</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,02; 17,36</t>
+          <t>6,4; 17,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,37; 16,39</t>
+          <t>5,93; 16,58</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 7,32</t>
+          <t>-1,15; 7,71</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-21,63; 60,79</t>
+          <t>-17,94; 62,69</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>32,0; 132,78</t>
+          <t>32,82; 123,74</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>41,74; 167,77</t>
+          <t>40,11; 171,84</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 42,88</t>
+          <t>-5,8; 44,38</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,25; 17,92</t>
+          <t>7,05; 17,26</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>10,23; 22,05</t>
+          <t>10,35; 22,03</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>14,51; 24,71</t>
+          <t>13,9; 24,51</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,56; 19,68</t>
+          <t>1,84; 19,87</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>26,85; 85,84</t>
+          <t>26,21; 81,52</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>27,27; 75,45</t>
+          <t>28,5; 73,7</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>55,57; 116,56</t>
+          <t>51,07; 114,97</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>14,28; 88,01</t>
+          <t>8,23; 87,4</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,94; 8,12</t>
+          <t>4,79; 8,02</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,22; 10,66</t>
+          <t>7,25; 11,01</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,71; 10,28</t>
+          <t>6,77; 10,22</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,26; 8,14</t>
+          <t>4,14; 8,11</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>55,91; 108,45</t>
+          <t>53,75; 106,62</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>61,6; 105,61</t>
+          <t>61,65; 108,07</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>67,2; 119,04</t>
+          <t>67,16; 119,8</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>31,95; 67,53</t>
+          <t>30,55; 67,84</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P9_2_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P9_2_R-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 4,22</t>
+          <t>-0,37; 4,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 4,32</t>
+          <t>-0,55; 4,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 3,51</t>
+          <t>-1,07; 3,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-13,92; 290,24</t>
+          <t>-18,97; 315,86</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-29,3; 240,12</t>
+          <t>-20,25; 247,37</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-41,9; 415,5</t>
+          <t>-45,26; 368,62</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,19; 7,15</t>
+          <t>2,22; 7,22</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 4,22</t>
+          <t>-0,53; 4,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 4,35</t>
+          <t>-0,55; 4,29</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>58,13; 409,68</t>
+          <t>59,1; 376,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-12,78; 192,29</t>
+          <t>-16,49; 201,81</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-14,15; 195,02</t>
+          <t>-13,52; 191,47</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,24; 6,81</t>
+          <t>1,05; 6,52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,23; 8,3</t>
+          <t>2,05; 8,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,92; 6,32</t>
+          <t>1,08; 6,38</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>19,05; 196,44</t>
+          <t>16,0; 188,3</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>28,9; 169,33</t>
+          <t>28,26; 178,96</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>13,39; 199,88</t>
+          <t>18,05; 199,52</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,47; 9,53</t>
+          <t>2,23; 9,68</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,56; 11,02</t>
+          <t>3,77; 11,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,02; 6,85</t>
+          <t>0,14; 7,13</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>28,77; 176,68</t>
+          <t>25,74; 178,45</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>34,61; 168,35</t>
+          <t>38,41; 167,29</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,14; 93,18</t>
+          <t>0,23; 95,64</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 7,07</t>
+          <t>-2,75; 7,02</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,4; 17,06</t>
+          <t>6,32; 17,33</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,93; 16,58</t>
+          <t>6,13; 16,22</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-17,94; 62,69</t>
+          <t>-17,77; 60,1</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>32,82; 123,74</t>
+          <t>35,41; 133,26</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>40,11; 171,84</t>
+          <t>42,73; 169,02</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,05; 17,26</t>
+          <t>6,89; 17,32</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>10,35; 22,03</t>
+          <t>10,2; 21,92</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>13,9; 24,51</t>
+          <t>14,31; 24,4</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>26,21; 81,52</t>
+          <t>25,13; 80,98</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>28,5; 73,7</t>
+          <t>28,18; 76,52</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>51,07; 114,97</t>
+          <t>54,73; 115,02</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1268,17 +1268,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,79; 8,02</t>
+          <t>4,96; 7,96</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,25; 11,01</t>
+          <t>7,14; 10,75</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,77; 10,22</t>
+          <t>6,74; 10,16</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1288,17 +1288,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>53,75; 106,62</t>
+          <t>56,03; 105,95</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>61,65; 108,07</t>
+          <t>60,35; 103,9</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>67,16; 119,8</t>
+          <t>66,87; 117,83</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
